--- a/Webservices_Youboat_Android.xlsx
+++ b/Webservices_Youboat_Android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="0" windowWidth="35160" windowHeight="21160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Webservice GET DATA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="335">
   <si>
     <t>kh</t>
   </si>
@@ -1926,6 +1926,9 @@
       </rPr>
       <t>] &lt;&lt;&lt;&lt;&lt;</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;region&gt;&lt;/type&gt;</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2099,6 +2102,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2114,7 +2129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2160,9 +2175,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2182,9 +2194,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2199,11 +2208,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2509,13 +2529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I168"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18">
@@ -2538,7 +2559,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2555,7 +2576,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2567,7 +2588,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A9" s="4" t="s">
@@ -2584,7 +2605,7 @@
       <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
@@ -2601,7 +2622,7 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2613,7 +2634,7 @@
       <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="18">
       <c r="A18" s="3" t="s">
@@ -2635,7 +2656,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
@@ -2652,7 +2673,7 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
@@ -2664,7 +2685,7 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
@@ -2676,7 +2697,7 @@
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -2688,7 +2709,7 @@
       <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A27" s="4" t="s">
@@ -2705,7 +2726,7 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -2722,7 +2743,7 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
@@ -2734,7 +2755,7 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -2746,7 +2767,7 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -2758,7 +2779,7 @@
       <c r="C33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -2770,7 +2791,7 @@
       <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" s="13" customFormat="1"/>
     <row r="36" spans="1:8" ht="15">
@@ -2790,7 +2811,7 @@
       <c r="C37" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
@@ -2798,7 +2819,7 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="13" t="s">
@@ -2810,7 +2831,7 @@
       <c r="C39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2822,7 +2843,7 @@
       <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1">
       <c r="A41" s="13" t="s">
@@ -2834,7 +2855,7 @@
       <c r="C41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="15">
       <c r="A43" s="4" t="s">
@@ -2853,7 +2874,7 @@
       <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
@@ -2870,7 +2891,7 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="26"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" s="5" customFormat="1">
       <c r="A47"/>
@@ -2894,13 +2915,13 @@
       <c r="C49" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="26"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -2912,7 +2933,7 @@
       <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="26"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
@@ -2924,7 +2945,7 @@
       <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="54" spans="1:8" ht="15">
       <c r="A54" s="4" t="s">
@@ -2943,13 +2964,16 @@
       <c r="C55" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="26"/>
+      <c r="F56" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2961,7 +2985,7 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="26"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="59" spans="1:8" ht="15">
       <c r="A59" s="4" t="s">
@@ -2980,13 +3004,13 @@
       <c r="C60" t="s">
         <v>62</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="26"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
@@ -2998,7 +3022,7 @@
       <c r="C62" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="26"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="15">
       <c r="A64" s="4" t="s">
@@ -3017,7 +3041,7 @@
       <c r="C65" t="s">
         <v>100</v>
       </c>
-      <c r="H65" s="26"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
@@ -3034,7 +3058,7 @@
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
@@ -3046,7 +3070,7 @@
       <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="15">
       <c r="A70" s="4" t="s">
@@ -3065,7 +3089,7 @@
       <c r="C71" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="27"/>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" spans="1:8" s="7" customFormat="1">
       <c r="A72" s="2" t="s">
@@ -3073,7 +3097,7 @@
       </c>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="26"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -3085,7 +3109,7 @@
       <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="27"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3097,7 +3121,7 @@
       <c r="C74" t="s">
         <v>107</v>
       </c>
-      <c r="H74" s="27"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="76" spans="1:8" ht="15">
       <c r="A76" s="4" t="s">
@@ -3116,13 +3140,13 @@
       <c r="C77" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="26"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="26"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3134,7 +3158,7 @@
       <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="26"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="81" spans="1:8" ht="15">
       <c r="A81" s="4" t="s">
@@ -3147,13 +3171,13 @@
       <c r="A82" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="48" t="s">
         <v>275</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="H82" s="26"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="20" t="s">
@@ -3161,7 +3185,7 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="13" t="s">
@@ -3173,7 +3197,7 @@
       <c r="C84" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="26"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="15">
       <c r="A86" s="4" t="s">
@@ -3192,7 +3216,7 @@
       <c r="C87" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H87" s="27"/>
+      <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="20"/>
@@ -3216,13 +3240,13 @@
       <c r="C90" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H90" s="27"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1">
       <c r="A91" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="27"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1">
       <c r="A92" s="13" t="s">
@@ -3234,7 +3258,7 @@
       <c r="C92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="27"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1"/>
     <row r="94" spans="1:8" s="13" customFormat="1"/>
@@ -3262,13 +3286,13 @@
       <c r="C100" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="26"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="26"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
@@ -3280,7 +3304,7 @@
       <c r="C102" t="s">
         <v>10</v>
       </c>
-      <c r="H102" s="26"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
@@ -3292,10 +3316,10 @@
       <c r="C103" t="s">
         <v>88</v>
       </c>
-      <c r="H103" s="26"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="H104" s="26"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" ht="15">
       <c r="A105" s="4" t="s">
@@ -3303,7 +3327,7 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="H105" s="26"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
@@ -3315,7 +3339,7 @@
       <c r="C106" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="26"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6" t="s">
@@ -3323,7 +3347,7 @@
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
-      <c r="H107" s="26"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
@@ -3335,7 +3359,7 @@
       <c r="C108" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="26"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
@@ -3347,10 +3371,10 @@
       <c r="C109" t="s">
         <v>93</v>
       </c>
-      <c r="H109" s="26"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="H110" s="26"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="15">
       <c r="A111" s="4" t="s">
@@ -3358,7 +3382,7 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="H111" s="26"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
@@ -3370,7 +3394,7 @@
       <c r="C112" t="s">
         <v>96</v>
       </c>
-      <c r="H112" s="26"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="6" t="s">
@@ -3378,7 +3402,7 @@
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="H113" s="26"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -3390,7 +3414,7 @@
       <c r="C114" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="26"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -3402,7 +3426,7 @@
       <c r="C115" t="s">
         <v>97</v>
       </c>
-      <c r="H115" s="26"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="123" spans="1:9" ht="18">
       <c r="A123" s="3" t="s">
@@ -3426,13 +3450,13 @@
       <c r="C125" t="s">
         <v>31</v>
       </c>
-      <c r="I125" s="26"/>
+      <c r="I125" s="25"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I126" s="26"/>
+      <c r="I126" s="25"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -3444,7 +3468,7 @@
       <c r="C127" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="26"/>
+      <c r="I127" s="25"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -3456,7 +3480,7 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="I128" s="26"/>
+      <c r="I128" s="25"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
@@ -3468,7 +3492,7 @@
       <c r="C129" t="s">
         <v>32</v>
       </c>
-      <c r="I129" s="26"/>
+      <c r="I129" s="25"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
@@ -3480,7 +3504,7 @@
       <c r="C130" t="s">
         <v>34</v>
       </c>
-      <c r="I130" s="26"/>
+      <c r="I130" s="25"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
@@ -3492,7 +3516,7 @@
       <c r="C131" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="26"/>
+      <c r="I131" s="25"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
@@ -3504,7 +3528,7 @@
       <c r="C132" t="s">
         <v>38</v>
       </c>
-      <c r="I132" s="26"/>
+      <c r="I132" s="25"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
@@ -3516,7 +3540,7 @@
       <c r="C133" t="s">
         <v>40</v>
       </c>
-      <c r="I133" s="26"/>
+      <c r="I133" s="25"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
@@ -3528,7 +3552,7 @@
       <c r="C134" t="s">
         <v>42</v>
       </c>
-      <c r="I134" s="26"/>
+      <c r="I134" s="25"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
@@ -3540,7 +3564,7 @@
       <c r="C135" t="s">
         <v>43</v>
       </c>
-      <c r="I135" s="26"/>
+      <c r="I135" s="25"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
@@ -3552,7 +3576,7 @@
       <c r="C136" t="s">
         <v>45</v>
       </c>
-      <c r="I136" s="26"/>
+      <c r="I136" s="25"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
@@ -3564,7 +3588,7 @@
       <c r="C137" t="s">
         <v>81</v>
       </c>
-      <c r="I137" s="26"/>
+      <c r="I137" s="25"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
@@ -3576,7 +3600,7 @@
       <c r="C138" t="s">
         <v>47</v>
       </c>
-      <c r="I138" s="26"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
@@ -3588,7 +3612,7 @@
       <c r="C139" t="s">
         <v>50</v>
       </c>
-      <c r="I139" s="27"/>
+      <c r="I139" s="26"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
@@ -3600,7 +3624,7 @@
       <c r="C140" t="s">
         <v>74</v>
       </c>
-      <c r="I140" s="26"/>
+      <c r="I140" s="25"/>
     </row>
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="4" t="s">
@@ -3619,13 +3643,13 @@
       <c r="C143" t="s">
         <v>72</v>
       </c>
-      <c r="I143" s="26"/>
+      <c r="I143" s="25"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I144" s="26"/>
+      <c r="I144" s="25"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -3637,7 +3661,7 @@
       <c r="C145" t="s">
         <v>10</v>
       </c>
-      <c r="I145" s="26"/>
+      <c r="I145" s="25"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -3649,7 +3673,7 @@
       <c r="C146" t="s">
         <v>5</v>
       </c>
-      <c r="I146" s="26"/>
+      <c r="I146" s="25"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -3661,7 +3685,7 @@
       <c r="C147" t="s">
         <v>73</v>
       </c>
-      <c r="I147" s="26"/>
+      <c r="I147" s="25"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
@@ -3673,7 +3697,7 @@
       <c r="C148" t="s">
         <v>36</v>
       </c>
-      <c r="I148" s="26"/>
+      <c r="I148" s="25"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
@@ -3685,7 +3709,7 @@
       <c r="C149" t="s">
         <v>76</v>
       </c>
-      <c r="I149" s="26"/>
+      <c r="I149" s="25"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
@@ -3697,7 +3721,7 @@
       <c r="C150" t="s">
         <v>78</v>
       </c>
-      <c r="I150" s="26"/>
+      <c r="I150" s="25"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
@@ -3709,7 +3733,7 @@
       <c r="C151" t="s">
         <v>42</v>
       </c>
-      <c r="I151" s="26"/>
+      <c r="I151" s="25"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
@@ -3721,7 +3745,7 @@
       <c r="C152" t="s">
         <v>43</v>
       </c>
-      <c r="I152" s="26"/>
+      <c r="I152" s="25"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
@@ -3733,7 +3757,7 @@
       <c r="C153" t="s">
         <v>79</v>
       </c>
-      <c r="I153" s="26"/>
+      <c r="I153" s="25"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
@@ -3745,7 +3769,7 @@
       <c r="C154" t="s">
         <v>80</v>
       </c>
-      <c r="I154" s="26"/>
+      <c r="I154" s="25"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
@@ -3757,7 +3781,7 @@
       <c r="C155" t="s">
         <v>50</v>
       </c>
-      <c r="I155" s="27"/>
+      <c r="I155" s="26"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
@@ -3769,7 +3793,7 @@
       <c r="C156" t="s">
         <v>74</v>
       </c>
-      <c r="I156" s="26"/>
+      <c r="I156" s="25"/>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="4" t="s">
@@ -3788,13 +3812,13 @@
       <c r="C159" t="s">
         <v>84</v>
       </c>
-      <c r="I159" s="26"/>
+      <c r="I159" s="25"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I160" s="26"/>
+      <c r="I160" s="25"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
@@ -3806,7 +3830,7 @@
       <c r="C161" t="s">
         <v>10</v>
       </c>
-      <c r="I161" s="26"/>
+      <c r="I161" s="25"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
@@ -3818,7 +3842,7 @@
       <c r="C162" t="s">
         <v>5</v>
       </c>
-      <c r="I162" s="26"/>
+      <c r="I162" s="25"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
@@ -3830,7 +3854,7 @@
       <c r="C163" t="s">
         <v>85</v>
       </c>
-      <c r="I163" s="26"/>
+      <c r="I163" s="25"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
@@ -3842,7 +3866,7 @@
       <c r="C164" t="s">
         <v>36</v>
       </c>
-      <c r="I164" s="26"/>
+      <c r="I164" s="25"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
@@ -3854,7 +3878,7 @@
       <c r="C165" t="s">
         <v>42</v>
       </c>
-      <c r="I165" s="26"/>
+      <c r="I165" s="25"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
@@ -3866,7 +3890,7 @@
       <c r="C166" t="s">
         <v>43</v>
       </c>
-      <c r="I166" s="26"/>
+      <c r="I166" s="25"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
@@ -3878,7 +3902,7 @@
       <c r="C167" t="s">
         <v>50</v>
       </c>
-      <c r="I167" s="27"/>
+      <c r="I167" s="26"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
@@ -3890,7 +3914,7 @@
       <c r="C168" t="s">
         <v>74</v>
       </c>
-      <c r="I168" s="26"/>
+      <c r="I168" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3952,7 +3976,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -3964,16 +3988,16 @@
       <c r="C4" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -3982,10 +4006,10 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B7" t="s">
@@ -3994,10 +4018,10 @@
       <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -4006,7 +4030,7 @@
       <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -4018,7 +4042,7 @@
       <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -4030,7 +4054,7 @@
       <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -4042,7 +4066,7 @@
       <c r="C11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -4054,7 +4078,7 @@
       <c r="C12" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -4083,16 +4107,16 @@
       <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -4101,10 +4125,10 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B21" t="s">
@@ -4113,10 +4137,10 @@
       <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B22" t="s">
@@ -4125,10 +4149,10 @@
       <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B23" t="s">
@@ -4137,13 +4161,13 @@
       <c r="C23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
@@ -4172,16 +4196,16 @@
       <c r="C31" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
@@ -4190,7 +4214,7 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -4202,7 +4226,7 @@
       <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
@@ -4214,10 +4238,10 @@
       <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="26"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B36" t="s">
@@ -4226,10 +4250,10 @@
       <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B37" t="s">
@@ -4238,7 +4262,7 @@
       <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="26"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
@@ -4250,10 +4274,10 @@
       <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="G38" s="26"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B39" t="s">
@@ -4262,10 +4286,10 @@
       <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="26"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B40" t="s">
@@ -4274,7 +4298,7 @@
       <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
@@ -4303,16 +4327,16 @@
       <c r="C46" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="26"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G47" s="26"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -4321,10 +4345,10 @@
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B49" t="s">
@@ -4333,7 +4357,7 @@
       <c r="C49" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="26"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
@@ -4345,10 +4369,10 @@
       <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="26"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B51" t="s">
@@ -4357,10 +4381,10 @@
       <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="26"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B52" t="s">
@@ -4369,7 +4393,7 @@
       <c r="C52" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="26"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
@@ -4381,10 +4405,10 @@
       <c r="C53" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="26"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>154</v>
       </c>
       <c r="B54" t="s">
@@ -4393,7 +4417,7 @@
       <c r="C54" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="26"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
@@ -4425,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4456,20 +4480,20 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="44" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4482,26 +4506,26 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="9"/>
@@ -4510,13 +4534,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D7" s="9"/>
@@ -4525,7 +4549,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4538,11 +4562,11 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -4568,13 +4592,13 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4583,13 +4607,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -4677,13 +4701,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="9"/>
@@ -4773,13 +4797,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -4799,11 +4823,11 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="28">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
@@ -4824,7 +4848,7 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -4835,7 +4859,7 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -4846,7 +4870,7 @@
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -4857,7 +4881,7 @@
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -4868,7 +4892,7 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -4878,7 +4902,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" s="34" customFormat="1"/>
+    <row r="36" spans="1:5" s="33" customFormat="1"/>
     <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
         <v>191</v>
@@ -5050,8 +5074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5120,13 +5144,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>167</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -5137,13 +5161,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="19"/>
@@ -5152,13 +5176,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="13"/>
@@ -5178,13 +5202,13 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="13"/>
@@ -5206,13 +5230,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="13"/>
@@ -5221,13 +5245,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -5238,13 +5262,13 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -5254,26 +5278,26 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="34" customFormat="1">
-      <c r="A16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" s="36" customFormat="1">
-      <c r="A17" s="35" t="s">
+    <row r="16" spans="1:5" s="33" customFormat="1">
+      <c r="A16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" s="34" customFormat="1">
+      <c r="A17" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -5282,13 +5306,13 @@
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -5297,7 +5321,7 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -5312,7 +5336,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -5326,20 +5350,20 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="27" customFormat="1">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:5" s="26" customFormat="1">
+      <c r="A22" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5432,13 +5456,13 @@
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="13"/>
@@ -5446,26 +5470,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1">
-      <c r="A30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" s="36" customFormat="1">
-      <c r="A31" s="35" t="s">
+    <row r="30" spans="1:5" s="33" customFormat="1">
+      <c r="A30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" s="34" customFormat="1">
+      <c r="A31" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -5475,31 +5499,31 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:5" s="26" customFormat="1">
+      <c r="A33" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -5551,13 +5575,13 @@
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D38" s="13"/>
@@ -5565,26 +5589,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="34" customFormat="1">
-      <c r="A39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" s="36" customFormat="1">
-      <c r="A40" s="35" t="s">
+    <row r="39" spans="1:5" s="33" customFormat="1">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" s="34" customFormat="1">
+      <c r="A40" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -5595,13 +5619,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D42" s="13"/>
@@ -5623,13 +5647,13 @@
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D44" s="13"/>
@@ -5650,7 +5674,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="39" t="s">
         <v>333</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -5668,11 +5692,11 @@
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" ht="28">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="13" t="s">
@@ -5683,8 +5707,8 @@
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="1:5" s="46" customFormat="1">
-      <c r="A52" s="45" t="s">
+    <row r="52" spans="1:5" s="43" customFormat="1">
+      <c r="A52" s="42" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5697,8 +5721,8 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" s="36" customFormat="1">
-      <c r="A54" s="43" t="s">
+    <row r="54" spans="1:5" s="34" customFormat="1">
+      <c r="A54" s="41" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5791,10 +5815,10 @@
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="44"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -5844,10 +5868,10 @@
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="44"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -5875,8 +5899,8 @@
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" s="36" customFormat="1">
-      <c r="A72" s="43" t="s">
+    <row r="72" spans="1:5" s="34" customFormat="1">
+      <c r="A72" s="41" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5958,10 +5982,10 @@
       <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="44"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -5989,8 +6013,8 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="1:5" s="36" customFormat="1">
-      <c r="A84" s="43" t="s">
+    <row r="84" spans="1:5" s="34" customFormat="1">
+      <c r="A84" s="41" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6009,7 +6033,7 @@
       <c r="A86" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="40" t="s">
         <v>252</v>
       </c>
       <c r="C86" s="21"/>
@@ -6030,10 +6054,10 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B88" s="44"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -6054,8 +6078,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="46" customFormat="1">
-      <c r="A92" s="45" t="s">
+    <row r="92" spans="1:5" s="43" customFormat="1">
+      <c r="A92" s="42" t="s">
         <v>266</v>
       </c>
     </row>

--- a/Webservices_Youboat_Android.xlsx
+++ b/Webservices_Youboat_Android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="30200" yWindow="1220" windowWidth="29540" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Webservice GET DATA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="334">
   <si>
     <t>kh</t>
   </si>
@@ -1926,9 +1926,6 @@
       </rPr>
       <t>] &lt;&lt;&lt;&lt;&lt;</t>
     </r>
-  </si>
-  <si>
-    <t>&lt;region&gt;&lt;/type&gt;</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2038,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2108,12 +2105,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2129,7 +2120,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2222,8 +2213,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2529,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2970,9 +2960,7 @@
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="49" t="s">
-        <v>334</v>
-      </c>
+      <c r="F56" s="33"/>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
@@ -3240,13 +3228,13 @@
       <c r="C90" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H90" s="26"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1">
       <c r="A91" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="26"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1">
       <c r="A92" s="13" t="s">
@@ -3258,7 +3246,7 @@
       <c r="C92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="26"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1"/>
     <row r="94" spans="1:8" s="13" customFormat="1"/>
@@ -3954,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G31" sqref="G31:G40"/>
     </sheetView>
   </sheetViews>
@@ -4449,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5074,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Webservices_Youboat_Android.xlsx
+++ b/Webservices_Youboat_Android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30200" yWindow="1220" windowWidth="29540" windowHeight="17660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Webservice GET DATA" sheetId="1" r:id="rId1"/>
@@ -2204,6 +2204,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2213,7 +2214,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2519,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3097,7 +3097,7 @@
       <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="26"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3159,7 +3159,7 @@
       <c r="A82" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="45" t="s">
         <v>275</v>
       </c>
       <c r="C82" s="13" t="s">
@@ -3942,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4205,7 +4205,7 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B34" t="s">
@@ -4811,11 +4811,11 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="28">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
@@ -5270,13 +5270,13 @@
       <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:5" s="34" customFormat="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
@@ -5462,13 +5462,13 @@
       <c r="A30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="34" customFormat="1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="28" t="s">
@@ -5581,13 +5581,13 @@
       <c r="A39" s="32"/>
     </row>
     <row r="40" spans="1:5" s="34" customFormat="1">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="28" t="s">
@@ -5680,11 +5680,11 @@
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" ht="28">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="13" t="s">
@@ -5803,10 +5803,10 @@
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -5856,10 +5856,10 @@
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="46"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -5970,10 +5970,10 @@
       <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="46"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -6042,10 +6042,10 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
